--- a/scoring/tests/CSEI/CSEI9A_test_2.xlsx
+++ b/scoring/tests/CSEI/CSEI9A_test_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="question_answers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="outputs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="question_answers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="outputs" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -709,6 +709,306 @@
         <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -752,7 +1052,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -772,7 +1072,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -782,7 +1082,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -792,7 +1092,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -802,7 +1102,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
